--- a/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,15; 32,66</t>
+          <t>27,27; 32,62</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,2; 36,35</t>
+          <t>30,23; 36,34</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,51; 36,78</t>
+          <t>30,41; 36,96</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,4; 39,91</t>
+          <t>32,46; 39,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,75; 48,22</t>
+          <t>42,81; 48,36</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,28; 52,09</t>
+          <t>46,24; 51,63</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,51; 52,28</t>
+          <t>45,84; 52,27</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,36; 57,95</t>
+          <t>52,06; 57,91</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,89; 40,74</t>
+          <t>36,71; 40,84</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,02; 44,38</t>
+          <t>40,29; 44,52</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,59; 44,47</t>
+          <t>40,0; 44,89</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,03; 49,72</t>
+          <t>45,14; 49,88</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,05</t>
+          <t>5,51; 8,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,11</t>
+          <t>7,53; 10,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 10,76</t>
+          <t>8,22; 10,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,84; 21,32</t>
+          <t>12,71; 22,16</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 10,21</t>
+          <t>7,32; 10,07</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 14,29</t>
+          <t>10,78; 14,21</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 15,46</t>
+          <t>12,22; 15,58</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 16,1</t>
+          <t>12,41; 16,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 8,54</t>
+          <t>6,76; 8,58</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,66; 11,78</t>
+          <t>9,57; 11,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 12,68</t>
+          <t>10,59; 12,66</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 18,71</t>
+          <t>13,48; 18,47</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,88</t>
+          <t>4,31; 8,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 10,43</t>
+          <t>5,22; 10,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,76</t>
+          <t>5,5; 10,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,11</t>
+          <t>5,33; 9,0</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 13,6</t>
+          <t>7,64; 12,95</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,42</t>
+          <t>5,91; 11,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 11,23</t>
+          <t>6,08; 11,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,17</t>
+          <t>7,73; 11,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,16</t>
+          <t>6,53; 10,15</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,17</t>
+          <t>6,15; 9,92</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,05</t>
+          <t>6,38; 9,97</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 9,54</t>
+          <t>6,89; 9,44</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,11</t>
+          <t>12,77; 15,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,31; 17,0</t>
+          <t>14,36; 16,91</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,81</t>
+          <t>13,39; 15,92</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,59</t>
+          <t>15,16; 21,07</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,79</t>
+          <t>21,88; 24,69</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,36; 27,13</t>
+          <t>24,12; 27,36</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,29; 24,35</t>
+          <t>21,39; 24,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,85</t>
+          <t>20,33; 23,93</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,66</t>
+          <t>17,74; 19,55</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 21,73</t>
+          <t>19,8; 21,75</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 19,74</t>
+          <t>17,93; 19,79</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,67; 21,82</t>
+          <t>18,73; 22,07</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -724,17 +724,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,27; 32,62</t>
+          <t>26,99; 32,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,23; 36,34</t>
+          <t>30,3; 36,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,41; 36,96</t>
+          <t>30,23; 36,99</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -744,17 +744,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,81; 48,36</t>
+          <t>42,99; 48,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,24; 51,63</t>
+          <t>46,29; 51,54</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,84; 52,27</t>
+          <t>45,89; 52,6</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -764,17 +764,17 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,71; 40,84</t>
+          <t>36,7; 40,67</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,29; 44,52</t>
+          <t>40,14; 44,17</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>40,0; 44,89</t>
+          <t>39,91; 44,87</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -864,17 +864,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,08</t>
+          <t>5,63; 7,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,53; 10,13</t>
+          <t>7,48; 10,26</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,22; 10,87</t>
+          <t>8,18; 10,97</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -884,17 +884,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,32; 10,07</t>
+          <t>7,31; 10,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,78; 14,21</t>
+          <t>11,02; 14,32</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,22; 15,58</t>
+          <t>12,29; 15,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -904,17 +904,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,76; 8,58</t>
+          <t>6,85; 8,67</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 11,67</t>
+          <t>9,59; 11,65</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,59; 12,66</t>
+          <t>10,53; 12,58</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1004,17 +1004,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 8,92</t>
+          <t>4,37; 8,69</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,22; 10,88</t>
+          <t>5,09; 10,51</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,5; 10,45</t>
+          <t>5,4; 10,54</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -1024,17 +1024,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,64; 12,95</t>
+          <t>7,62; 13,36</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,91; 11,47</t>
+          <t>5,8; 11,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,08; 11,0</t>
+          <t>6,15; 11,3</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1044,17 +1044,17 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,53; 10,15</t>
+          <t>6,51; 9,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 9,92</t>
+          <t>6,12; 10,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,38; 9,97</t>
+          <t>6,31; 10,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,32</t>
+          <t>12,77; 15,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,36; 16,91</t>
+          <t>14,26; 16,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,39; 15,92</t>
+          <t>13,37; 15,88</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -1164,17 +1164,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,88; 24,69</t>
+          <t>21,78; 24,66</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,12; 27,36</t>
+          <t>24,26; 27,34</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,39; 24,47</t>
+          <t>21,49; 24,49</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1184,17 +1184,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,74; 19,55</t>
+          <t>17,8; 19,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,8; 21,75</t>
+          <t>19,73; 21,7</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,93; 19,79</t>
+          <t>17,76; 19,77</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">

--- a/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>26,99; 32,63</t>
+          <t>27,15; 32,66</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,3; 36,46</t>
+          <t>30,2; 36,35</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,23; 36,99</t>
+          <t>30,51; 36,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,46; 39,58</t>
+          <t>32,4; 39,91</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,99; 48,4</t>
+          <t>42,75; 48,22</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,29; 51,54</t>
+          <t>46,28; 52,09</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,89; 52,6</t>
+          <t>45,51; 52,28</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,06; 57,91</t>
+          <t>52,36; 57,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,7; 40,67</t>
+          <t>36,89; 40,74</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,14; 44,17</t>
+          <t>40,02; 44,38</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,91; 44,87</t>
+          <t>39,59; 44,47</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,14; 49,88</t>
+          <t>45,03; 49,72</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,63; 7,97</t>
+          <t>5,64; 8,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,48; 10,26</t>
+          <t>7,51; 10,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,18; 10,97</t>
+          <t>8,19; 10,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,71; 22,16</t>
+          <t>12,84; 21,32</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,31; 10,19</t>
+          <t>7,4; 10,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,02; 14,32</t>
+          <t>10,94; 14,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 15,46</t>
+          <t>12,08; 15,46</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,41; 16,14</t>
+          <t>12,1; 16,1</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,85; 8,67</t>
+          <t>6,78; 8,54</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,59; 11,65</t>
+          <t>9,66; 11,78</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,53; 12,58</t>
+          <t>10,56; 12,68</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,48; 18,47</t>
+          <t>13,38; 18,71</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 8,69</t>
+          <t>4,17; 8,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,09; 10,51</t>
+          <t>5,11; 10,43</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,4; 10,54</t>
+          <t>5,52; 10,76</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,33; 9,0</t>
+          <t>5,29; 9,11</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,62; 13,36</t>
+          <t>7,79; 13,6</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,8; 11,34</t>
+          <t>5,96; 11,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,15; 11,3</t>
+          <t>5,98; 11,23</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,73; 11,17</t>
+          <t>7,72; 11,17</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,51; 9,96</t>
+          <t>6,47; 10,16</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,12; 10,0</t>
+          <t>6,26; 10,17</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 10,05</t>
+          <t>6,45; 10,05</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,89; 9,44</t>
+          <t>6,94; 9,54</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,77; 15,2</t>
+          <t>12,69; 15,11</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,26; 16,86</t>
+          <t>14,31; 17,0</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,88</t>
+          <t>13,37; 15,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,16; 21,07</t>
+          <t>15,2; 21,59</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>21,78; 24,66</t>
+          <t>22,0; 24,79</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,26; 27,34</t>
+          <t>24,36; 27,13</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,49; 24,49</t>
+          <t>21,29; 24,35</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,33; 23,93</t>
+          <t>20,27; 23,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 19,68</t>
+          <t>17,67; 19,66</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,73; 21,7</t>
+          <t>19,75; 21,73</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,76; 19,77</t>
+          <t>17,8; 19,74</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,73; 22,07</t>
+          <t>18,67; 21,82</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>36,02%</t>
+          <t>35,6%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>55,01%</t>
+          <t>54,6%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>47,54%</t>
+          <t>46,89%</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,4; 39,91</t>
+          <t>32,14; 39,58</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,36; 57,95</t>
+          <t>52,0; 57,53</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>45,03; 49,72</t>
+          <t>44,35; 49,05</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>15,26%</t>
+          <t>22,16%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>14,6%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>14,93%</t>
+          <t>17,82%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,84; 21,32</t>
+          <t>12,55; 41,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12,1; 16,1</t>
+          <t>9,27; 15,45</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,38; 18,71</t>
+          <t>12,58; 33,54</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,92%</t>
+          <t>6,77%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>7,96%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,29; 9,11</t>
+          <t>5,17; 8,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,72; 11,17</t>
+          <t>7,63; 10,94</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,94; 9,54</t>
+          <t>6,8; 9,32</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>21,29%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>22,49%</t>
+          <t>21,13%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>19,87%</t>
+          <t>21,21%</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>15,2; 21,59</t>
+          <t>14,94; 39,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>20,27; 23,85</t>
+          <t>16,74; 22,94</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,67; 21,82</t>
+          <t>17,91; 31,61</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P8_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>27,15; 32,66</t>
+          <t>27,21; 32,59</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,2; 36,35</t>
+          <t>29,84; 36,28</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,51; 36,78</t>
+          <t>30,09; 36,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>32,14; 39,58</t>
+          <t>31,77; 39,55</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>42,75; 48,22</t>
+          <t>42,88; 48,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>46,28; 52,09</t>
+          <t>46,18; 51,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>45,51; 52,28</t>
+          <t>45,55; 51,85</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>52,0; 57,53</t>
+          <t>51,74; 57,63</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>36,89; 40,74</t>
+          <t>36,66; 40,71</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>40,02; 44,38</t>
+          <t>40,21; 44,29</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>39,59; 44,47</t>
+          <t>39,9; 44,76</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>44,35; 49,05</t>
+          <t>44,53; 49,21</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,05</t>
+          <t>5,66; 8,01</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,51; 10,11</t>
+          <t>7,62; 10,34</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>8,19; 10,76</t>
+          <t>8,23; 10,69</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>12,55; 41,6</t>
+          <t>12,41; 46,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>7,4; 10,21</t>
+          <t>7,41; 10,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>10,94; 14,29</t>
+          <t>10,93; 14,41</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,08; 15,46</t>
+          <t>12,11; 15,54</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>9,27; 15,45</t>
+          <t>9,81; 15,37</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>6,78; 8,54</t>
+          <t>6,79; 8,63</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>9,66; 11,78</t>
+          <t>9,58; 11,79</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>10,56; 12,68</t>
+          <t>10,59; 12,62</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>12,58; 33,54</t>
+          <t>12,66; 31,15</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 8,88</t>
+          <t>4,51; 8,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,11; 10,43</t>
+          <t>5,07; 10,3</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5,52; 10,76</t>
+          <t>5,63; 10,58</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,88</t>
+          <t>5,2; 8,83</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,79; 13,6</t>
+          <t>7,56; 13,33</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,96; 11,42</t>
+          <t>5,99; 11,47</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,98; 11,23</t>
+          <t>6,27; 11,39</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>7,63; 10,94</t>
+          <t>7,51; 11,02</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,47; 10,16</t>
+          <t>6,48; 10,02</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 10,17</t>
+          <t>6,13; 10,01</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6,45; 10,05</t>
+          <t>6,52; 10,19</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>6,8; 9,32</t>
+          <t>6,71; 9,26</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,69; 15,11</t>
+          <t>12,84; 15,12</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,31; 17,0</t>
+          <t>14,34; 17,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>13,37; 15,81</t>
+          <t>13,26; 15,86</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>14,94; 39,0</t>
+          <t>14,89; 38,62</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,0; 24,79</t>
+          <t>21,77; 24,82</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>24,36; 27,13</t>
+          <t>24,1; 27,25</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>21,29; 24,35</t>
+          <t>21,33; 24,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,74; 22,94</t>
+          <t>17,07; 23,08</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,67; 19,66</t>
+          <t>17,7; 19,68</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>19,75; 21,73</t>
+          <t>19,75; 21,67</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,8; 19,74</t>
+          <t>17,85; 19,8</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,91; 31,61</t>
+          <t>17,84; 31,8</t>
         </is>
       </c>
     </row>
@@ -1223,4 +1224,1003 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con limitación a subir varios pisos</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Primarios</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>580</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>611</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>805</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>901</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>906</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>684</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1063</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>307968</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>323265</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>253468</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>183305</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>599490</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>653490</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>486552</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>412201</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>907458</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>976755</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>740021</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>595506</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>280722; 336212</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>290815; 353583</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>226955; 275718</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>163590; 203650</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>563919; 636135</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>617243; 690891</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>453057; 515740</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>390595; 435033</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>860415; 955377</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>929394; 1023671</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>697840; 782881</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>565440; 624965</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundarios</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>552</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>113647</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>172668</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>195843</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>507609</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>137389</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>220937</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>274815</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>299389</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>251036</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>393605</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>470658</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>806998</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>95883; 135636</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>149350; 202649</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>170826; 221911</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>284316; 1059717</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>117644; 162308</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>192089; 253355</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>240685; 308962</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>219507; 344030</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>222831; 283051</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>356253; 438454</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>430535; 512946</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>573188; 1410312</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Universitarios</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>34700</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36103</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>42670</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>43745</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>48719</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>38178</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>46350</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>60248</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>83419</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>74281</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>89020</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>103993</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>24854; 49520</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>24385; 49580</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>30771; 57868</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>33569; 57027</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>36010; 63483</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>27492; 52609</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>34425; 62522</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>49626; 72796</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>66572; 102965</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>57635; 94035</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>71510; 111728</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>87708; 120924</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>467</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>483</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>488</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>628</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>759</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>844</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>699</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>1472</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>1226</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>1327</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>1187</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>2100</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>456316</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>532036</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>491981</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>734659</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>785598</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>912605</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>807718</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>771838</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1241913</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1444641</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1299699</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1506497</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>420700; 495339</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>489931; 581398</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>447711; 535657</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>514037; 1332936</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>735747; 838704</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>856378; 968339</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>753248; 858064</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>623564; 843130</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1178324; 1310043</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>1376380; 1509846</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>1233417; 1367877</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>1267111; 2259192</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>